--- a/teams-and-rosters/CS320_ProjectTeams_Spring2017.xlsx
+++ b/teams-and-rosters/CS320_ProjectTeams_Spring2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Alaska Kiley</t>
   </si>
@@ -57,15 +57,6 @@
     <t>Derek McClellan</t>
   </si>
   <si>
-    <t>Jamii</t>
-  </si>
-  <si>
-    <t>Voice Chat Application</t>
-  </si>
-  <si>
-    <t>Player Trading Network</t>
-  </si>
-  <si>
     <t>Aaron Roby</t>
   </si>
   <si>
@@ -102,9 +93,6 @@
     <t>Devin Glispy</t>
   </si>
   <si>
-    <t>Compliance Training Monitor</t>
-  </si>
-  <si>
     <t>Cody Spath</t>
   </si>
   <si>
@@ -117,9 +105,6 @@
     <t>Jason Bady</t>
   </si>
   <si>
-    <t>ClassWise</t>
-  </si>
-  <si>
     <t>Kyle Jones</t>
   </si>
   <si>
@@ -129,9 +114,6 @@
     <t>Travis Jones</t>
   </si>
   <si>
-    <t>TED Talk Reviews</t>
-  </si>
-  <si>
     <t>Nick Vandermark</t>
   </si>
   <si>
@@ -144,9 +126,6 @@
     <t>Joshua Debose</t>
   </si>
   <si>
-    <t>Photo/File Forum</t>
-  </si>
-  <si>
     <t>Liam Hurd</t>
   </si>
   <si>
@@ -156,18 +135,6 @@
     <t>Meliissa Morrison</t>
   </si>
   <si>
-    <t>Resistor Sorter</t>
-  </si>
-  <si>
-    <t>GSFC Usage Tracker</t>
-  </si>
-  <si>
-    <t>YCP E&amp;CS Project Database</t>
-  </si>
-  <si>
-    <t>myCommencement</t>
-  </si>
-  <si>
     <t>CS320: Software Engineering Teams - Spring 2017</t>
   </si>
   <si>
@@ -178,6 +145,45 @@
   </si>
   <si>
     <t>Section 103 (MWF 1:00 - 1:50)</t>
+  </si>
+  <si>
+    <t>1: myCommencement</t>
+  </si>
+  <si>
+    <t>2: myCommencement</t>
+  </si>
+  <si>
+    <t>3: Jamii</t>
+  </si>
+  <si>
+    <t>4: Voice Chat Application</t>
+  </si>
+  <si>
+    <t>5: Player Trading Network</t>
+  </si>
+  <si>
+    <t>6: TED Talk Reviews</t>
+  </si>
+  <si>
+    <t>7: Resistor Sorter</t>
+  </si>
+  <si>
+    <t>8: GSFC Usage Tracker</t>
+  </si>
+  <si>
+    <t>9: Compliance Training Monitor</t>
+  </si>
+  <si>
+    <t>10: TED Talk Reviews</t>
+  </si>
+  <si>
+    <t>11: ClassWise</t>
+  </si>
+  <si>
+    <t>12: Photo/File Forum</t>
+  </si>
+  <si>
+    <t>13: YCP E&amp;CS Project Database</t>
   </si>
 </sst>
 </file>
@@ -324,18 +330,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -351,6 +351,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -660,242 +663,242 @@
   <dimension ref="B2:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="B2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="4" spans="2:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="2:6" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>15</v>
+      <c r="B4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" s="2" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="2:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="B10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="2:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>28</v>
+      <c r="B11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="2:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="s">
+      <c r="D17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="E19" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="C20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>31</v>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/teams-and-rosters/CS320_ProjectTeams_Spring2017.xlsx
+++ b/teams-and-rosters/CS320_ProjectTeams_Spring2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Alaska Kiley</t>
   </si>
@@ -184,13 +184,22 @@
   </si>
   <si>
     <t>13: YCP E&amp;CS Project Database</t>
+  </si>
+  <si>
+    <t>Mentors: Alex Smith</t>
+  </si>
+  <si>
+    <t>Mentors: Pat Lynn and Aaron Walsh</t>
+  </si>
+  <si>
+    <t>Mentors: Mat Jones and Dan Reightneour</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +239,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -245,7 +269,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -326,11 +350,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -353,12 +386,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F22"/>
+  <dimension ref="B2:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,236 +727,273 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="4" spans="2:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="8" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="B4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="2:6" s="2" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="2:6" s="11" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="2:6" s="2" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+    <row r="7" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
+    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="B12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="2:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="2:6" s="13" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="2:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+    <row r="15" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
+    <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="8" t="s">
+    <row r="18" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="B20" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="2:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="7" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="2:6" s="13" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="2:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
+    <row r="23" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="5" t="s">
+    <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5" t="s">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="B21:E21"/>
     <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B16:F16"/>
     <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/teams-and-rosters/CS320_ProjectTeams_Spring2017.xlsx
+++ b/teams-and-rosters/CS320_ProjectTeams_Spring2017.xlsx
@@ -60,9 +60,6 @@
     <t>Aaron Roby</t>
   </si>
   <si>
-    <t>Terrell Calrk</t>
-  </si>
-  <si>
     <t>Chihea Locke</t>
   </si>
   <si>
@@ -193,6 +190,9 @@
   </si>
   <si>
     <t>Mentors: Mat Jones and Dan Reightneour</t>
+  </si>
+  <si>
+    <t>Terrell Clark</t>
   </si>
 </sst>
 </file>
@@ -389,6 +389,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -398,16 +408,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -712,7 +712,7 @@
   <dimension ref="B2:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,13 +727,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="B2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B3" s="8"/>
@@ -743,38 +743,38 @@
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="2:6" s="11" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="B4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="2:6" s="9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="2:6" s="2" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -826,35 +826,35 @@
     </row>
     <row r="10" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B12" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="2:6" s="13" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="11"/>
+      <c r="B12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="2:6" s="10" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="2:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -862,126 +862,126 @@
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="E17" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B20" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" spans="2:6" s="13" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="11"/>
+      <c r="B20" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="2:6" s="10" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="2:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/teams-and-rosters/CS320_ProjectTeams_Spring2017.xlsx
+++ b/teams-and-rosters/CS320_ProjectTeams_Spring2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Alaska Kiley</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>1: myCommencement</t>
-  </si>
-  <si>
-    <t>2: myCommencement</t>
   </si>
   <si>
     <t>3: Jamii</t>
@@ -269,7 +266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -359,11 +356,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -386,16 +396,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -405,7 +418,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -709,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F27"/>
+  <dimension ref="B2:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,45 +733,45 @@
     <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="33.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="2:6" s="9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="B5" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="2:6" s="2" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
@@ -773,24 +786,18 @@
       <c r="E6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -799,201 +806,207 @@
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B12" s="13" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="B13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="2:6" s="10" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="2:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="7" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="2:6" s="9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="2:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="7" t="s">
+    </row>
+    <row r="16" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="B21" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="2:6" s="9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="2:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B20" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="2:6" s="10" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="2:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
+    </row>
+    <row r="24" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="5" t="s">
+    <row r="27" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5" t="s">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B13:E13"/>
     <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
